--- a/biology/Zoologie/Hemidactylus/Hemidactylus.xlsx
+++ b/biology/Zoologie/Hemidactylus/Hemidactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hemidactylus est un genre de geckos de la famille des Gekkonidae[1]. C'est le genre de lézard le plus répandu au monde avec 165 espèces. 
-Les espèces les plus communes sont les geckos de maisons comme le Tjictjac ou Gecko asiatique (H. frenatus), l'Hémidactyle indo-pacifique (H. garotii), le Gecko mabouia (H. mabouia), l'Hémidactyle verruqueux (H. turcicus) et H. platyurus, qui ont colonisé toutes les régions tropicales et subtropicales de la planète[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hemidactylus est un genre de geckos de la famille des Gekkonidae. C'est le genre de lézard le plus répandu au monde avec 165 espèces. 
+Les espèces les plus communes sont les geckos de maisons comme le Tjictjac ou Gecko asiatique (H. frenatus), l'Hémidactyle indo-pacifique (H. garotii), le Gecko mabouia (H. mabouia), l'Hémidactyle verruqueux (H. turcicus) et H. platyurus, qui ont colonisé toutes les régions tropicales et subtropicales de la planète.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent presque toujours en Afrique, en Asie et en Océanie ; et beaucoup plus rarement en Amérique du Sud [1](seules trois espèces en sont originaires dont Hemidactylus palaichthus).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent presque toujours en Afrique, en Asie et en Océanie ; et beaucoup plus rarement en Amérique du Sud (seules trois espèces en sont originaires dont Hemidactylus palaichthus).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces geckos sont arboricoles et nocturnes et vivent dans des forêts humides. Les mâles ont souvent la possibilité de vocaliser. Leur taille varie de 50 ou 60 mm à près de 200 mm. Leur coloration varie en général autour du brun clair ou foncé et du jaune pâle, avec la présence fréquente de bandes ou de taches. Un certain nombre d'espèces possèdent une queue préhensile.
 Toutes les espèces sont ovipares et pondent un ou deux œufs à coquille dure, souvent plusieurs fois dans l'année.
@@ -576,29 +592,31 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (22 septembre 2023)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (22 septembre 2023) :
 Hemidactylus aaronbaueri Giri, 2008
 Hemidactylus acanthopholis Mirza &amp; Sanap, 2014
-Hemidactylus achaemenidicus Torki, 2019[4]
+Hemidactylus achaemenidicus Torki, 2019
 Hemidactylus adensis Šmíd et al., 2015
-Hemidactylus aemulus Kumar et al., 2022[5]
-Hemidactylus afarensis Šmíd et al., 2020[6]
+Hemidactylus aemulus Kumar et al., 2022
+Hemidactylus afarensis Šmíd et al., 2020
 Hemidactylus agrius Vanzolini, 1978
 Hemidactylus albituberculatus Trape, 2012
 Hemidactylus albivertebralis Trape &amp; Böhme, 2012
 Hemidactylus albofasciatus Grandison &amp; Soman, 1963
 Hemidactylus albopunctatus (Loveridge, 1947)
-Hemidactylus alfarraji Šmíd et al., 2016[7]
+Hemidactylus alfarraji Šmíd et al., 2016
 Hemidactylus alkiyumii Carranza &amp; Arnold, 2012
-Hemidactylus almakhwah Šmíd et al., 2022[8]
+Hemidactylus almakhwah Šmíd et al., 2022
 Hemidactylus angulatus Hallowell, 1854
 Hemidactylus ansorgii Boulenger, 1901
 Hemidactylus aporus Boulenger, 1906
 Hemidactylus aquilonius McMahan &amp; Zug, 2007
 Hemidactylus arnoldi Lanza, 1978
-Hemidactylus asirensis Šmíd et al., 2016[7]
+Hemidactylus asirensis Šmíd et al., 2016
 Hemidactylus awashensis Šmíd et al., 2015
 Hemidactylus barbierii Sindaco et al., 2007
 Hemidactylus barbouri Loveridge, 1942
@@ -613,10 +631,10 @@
 Hemidactylus bowringii (Gray, 1845)
 Hemidactylus brasilianus Amaral, 1935
 Hemidactylus brookii Gray, 1845
-Hemidactylus carivoensis Lobón-Rovira et al., 2021[9]
-Hemidactylus chikhaldaraensis Agarwal et al., 2019[10]
-Hemidactylus chipkali Mirza &amp; Raju, 2017[11]
-Hemidactylus cinganji Lobón-Rovira et al., 2021[9]
+Hemidactylus carivoensis Lobón-Rovira et al., 2021
+Hemidactylus chikhaldaraensis Agarwal et al., 2019
+Hemidactylus chipkali Mirza &amp; Raju, 2017
+Hemidactylus cinganji Lobón-Rovira et al., 2021
 Hemidactylus citernii Boulenger, 1912
 Hemidactylus coalescens Wagner et al., 2014
 Hemidactylus craspedotus Mocquard, 1890
@@ -624,15 +642,15 @@
 Hemidactylus dawudazraqi Moravec et al., 2011
 Hemidactylus depressus Gray, 1842
 Hemidactylus dracaenacolus Rösler &amp; Wranik, 1999
-Hemidactylus easai Das et al., 2022[12]
+Hemidactylus easai Das et al., 2022
 Hemidactylus echinus O'Shaughnessy, 1875
 Hemidactylus endophis Carranza &amp; Arnold, 2012
 Hemidactylus eniangii Wagner et al., 2014
-Hemidactylus farasani Šmíd et al., 2022[8]
+Hemidactylus farasani Šmíd et al., 2022
 Hemidactylus fasciatus Gray, 1842
-Hemidactylus faustus Lobón-Rovira et al., 2021[9]
+Hemidactylus faustus Lobón-Rovira et al., 2021
 Hemidactylus festivus Carranza &amp; Arnold, 2012
-Hemidactylus flavicauda Lajmi et al., 2020[13]
+Hemidactylus flavicauda Lajmi et al., 2020
 Hemidactylus flaviviridis Rüppell, 1835
 Hemidactylus forbesii Boulenger, 1899
 Hemidactylus foudaii Baha El Din, 2003
@@ -643,7 +661,7 @@
 Hemidactylus giganteus Stoliczka, 1871
 Hemidactylus gleadowi Murray, 1884
 Hemidactylus gracilis Blanford, 1870
-Hemidactylus gramineus Ceríaco et al., 2021[14]
+Hemidactylus gramineus Ceríaco et al., 2021
 Hemidactylus granchii Lanza, 1978
 Hemidactylus graniticolus Agarwal et al., 2011
 Hemidactylus granosus Heyden, 1827
@@ -651,7 +669,7 @@
 Hemidactylus greeffii Bocage, 1886
 Hemidactylus gujaratensis Giri et al., 2009
 Hemidactylus hajarensis Carranza &amp; Arnold, 2012
-Hemidactylus hegdei Pal &amp; Mirza, 2022[15]
+Hemidactylus hegdei Pal &amp; Mirza, 2022
 Hemidactylus hemchandrai Dandge &amp; Tiple, 2015
 Hemidactylus homoeolepis Blanford, 1881
 Hemidactylus hunae Deraniyagala, 1937
@@ -663,18 +681,18 @@
 Hemidactylus jubensis Boulenger, 1895
 Hemidactylus jumailiae Busais &amp; Joger, 2011
 Hemidactylus kamdemtohami Bauer &amp; Pauwels, 2002
-Hemidactylus kangerensis Mirza et al., 2017[16]
+Hemidactylus kangerensis Mirza et al., 2017
 Hemidactylus karenorum (Theobald, 1868)
-Hemidactylus kimbulae Amarasinghe et al., 2021[17]
+Hemidactylus kimbulae Amarasinghe et al., 2021
 Hemidactylus klauberi Scortecci, 1948
-Hemidactylus kolliensis Agarwal et al., 2019[10]
+Hemidactylus kolliensis Agarwal et al., 2019
 Hemidactylus kundaensis Trape, 2012
 Hemidactylus kushmorensis Murray, 1884
 Hemidactylus kyaboboensis Wagner et al., 2014
 Hemidactylus laevis Boulenger, 1901
 Hemidactylus lamaensis Ullenbruch et al., 2010
 Hemidactylus lankae Deraniyagala, 1953
-Hemidactylus lanzai Šmíd et al., 2020[6]
+Hemidactylus lanzai Šmíd et al., 2020
 Hemidactylus laticaudatus Andersson, 1910
 Hemidactylus lavadeserticus Moravec &amp; Böhme, 1997
 Hemidactylus lemurinus Arnold, 1980
@@ -685,7 +703,7 @@
 Hemidactylus mabouia (Moreau de Jonnès, 1818)
 Hemidactylus macropholis Boulenger, 1896
 Hemidactylus maculatus Duméril &amp; Bibron, 1836
-Hemidactylus mahonyi Adhikari et al., 2022[18]
+Hemidactylus mahonyi Adhikari et al., 2022
 Hemidactylus makolowodei Bauer et al., 2006
 Hemidactylus malcolmsmithi (Constable, 1949)
 Hemidactylus mandebensis Šmíd et al., 2015
@@ -698,60 +716,60 @@
 Hemidactylus modestus (Günther, 1894)
 Hemidactylus montanus Busais &amp; Joger, 2011
 Hemidactylus mrimaensis Malonza &amp; Bauer, 2014
-Hemidactylus multisulcatus Sayyed et al., 2023[19]
+Hemidactylus multisulcatus Sayyed et al., 2023
 Hemidactylus muriceus Peters, 1870
 Hemidactylus murrayi Gleadow, 1887
 Hemidactylus newtoni Ferreira, 1897
-Hemidactylus nicolauensis Vasconcelos et al., 2020[20]
-Hemidactylus nzingae Ceríaco et al., 2020[21]
+Hemidactylus nicolauensis Vasconcelos et al., 2020
+Hemidactylus nzingae Ceríaco et al., 2020
 Hemidactylus ophiolepis Boulenger, 1903
 Hemidactylus ophiolepoides Lanza, 1978
 Hemidactylus oxyrhinus Boulenger, 1899
-Hemidactylus paaragowli Srikanthan et al., 2018[22]
-Hemidactylus paivae Ceríaco et al., 2020[21]
-Hemidactylus pakkamalaiensis Narayanan et al., 2023[23]
+Hemidactylus paaragowli Srikanthan et al., 2018
+Hemidactylus paivae Ceríaco et al., 2020
+Hemidactylus pakkamalaiensis Narayanan et al., 2023
 Hemidactylus palaichthus Kluge, 1969
 Hemidactylus parvimaculatus Deraniyagala, 1953
-Hemidactylus paucifasciatus Mohapatra et al., 2023[24]
+Hemidactylus paucifasciatus Mohapatra et al., 2023
 Hemidactylus pauciporosus Lanza, 1978
 Hemidactylus paucituberculatus Carranza &amp; Arnold, 2012
 Hemidactylus persicus Anderson, 1872
-Hemidactylus pfindaensis Lobón-Rovira et al., 2021[9]
+Hemidactylus pfindaensis Lobón-Rovira et al., 2021
 Hemidactylus pieresii Kelaart, 1852
 Hemidactylus platycephalus Peters, 1854
 Hemidactylus platyurus (Schneider, 1797)
 Hemidactylus prashadi Smith, 1935
 Hemidactylus principensis Miller et al., 2012
 Hemidactylus pseudomuriceus Henle &amp; Böhme, 2003
-Hemidactylus pseudoromeshkanicus Torki, 2019[4]
+Hemidactylus pseudoromeshkanicus Torki, 2019
 Hemidactylus puccionii Calabresi, 1927
 Hemidactylus pumilio Boulenger, 1899
-Hemidactylus quartziticolus Khandekar et al., 2023[25]
-Hemidactylus raya Kumar et al., 2022[5]
+Hemidactylus quartziticolus Khandekar et al., 2023
+Hemidactylus raya Kumar et al., 2022
 Hemidactylus reticulatus Beddome, 1870
 Hemidactylus richardsonii (Gray, 1845)
-Hemidactylus rishivalleyensis Agarwal et al., 2020[26]
+Hemidactylus rishivalleyensis Agarwal et al., 2020
 Hemidactylus robustus Heyden, 1827
 Hemidactylus romeshkanicus Torki, 2011
 Hemidactylus ruspolii Boulenger, 1896
 Hemidactylus saba Busais &amp; Joger, 2011
-Hemidactylus sahgali Mirza et al., 2018[27]
-Hemidactylus sankariensis Agarwal et al., 2019[10]
-Hemidactylus sassanidianus Torki, 2019[4]
+Hemidactylus sahgali Mirza et al., 2018
+Hemidactylus sankariensis Agarwal et al., 2019
+Hemidactylus sassanidianus Torki, 2019
 Hemidactylus sataraensis Giri &amp; Bauer, 2008
-Hemidactylus saxicolus Kumar et al., 2022[5]
+Hemidactylus saxicolus Kumar et al., 2022
 Hemidactylus scabriceps (Annandale, 1906)
 Hemidactylus shihraensis Busais &amp; Joger, 2011
 Hemidactylus sinaitus Boulenger, 1885
-Hemidactylus sirumalaiensis Khandekar et al., 2020[28]
-Hemidactylus siva Srinivasulu et al., 2018[29]
+Hemidactylus sirumalaiensis Khandekar et al., 2020
+Hemidactylus siva Srinivasulu et al., 2018
 Hemidactylus smithi Boulenger, 1895
 Hemidactylus somalicus Parker, 1932
 Hemidactylus squamulatus Tornier, 1896
-Hemidactylus srikanthani Adhikari et al., 2022[18]
+Hemidactylus srikanthani Adhikari et al., 2022
 Hemidactylus stejnegeri Ota &amp; Hikida, 1989
-Hemidactylus sushilduttai Giri et al., 2017[30]
-Hemidactylus tamhiniensis Khandekar et al., 2020[31]
+Hemidactylus sushilduttai Giri et al., 2017
+Hemidactylus tamhiniensis Khandekar et al., 2020
 Hemidactylus tanganicus Loveridge, 1929
 Hemidactylus tasmani Hewitt, 1932
 Hemidactylus taylori Parker, 1932
@@ -762,13 +780,13 @@
 Hemidactylus tropidolepis Mocquard, 1888
 Hemidactylus turcicus (Linnaeus, 1758)
 Hemidactylus ulii Šmíd et al., 2013
-Hemidactylus vanam Chaitanya et al., 2018[32]
-Hemidactylus varadgirii Chaitanya et al., 2019[33]
-Hemidactylus vernayi Ceríaco et al., 2020[34]
+Hemidactylus vanam Chaitanya et al., 2018
+Hemidactylus varadgirii Chaitanya et al., 2019
+Hemidactylus vernayi Ceríaco et al., 2020
 Hemidactylus vietnamensis Darevsky et al., 1984
-Hemidactylus vijayraghavani Mirza, 2018[35]
-Hemidactylus whitakeri Mirza et al., 2018[27]
-Hemidactylus xericolus Lajmi et al., 2020[13]
+Hemidactylus vijayraghavani Mirza, 2018
+Hemidactylus whitakeri Mirza et al., 2018
+Hemidactylus xericolus Lajmi et al., 2020
 Hemidactylus yajurvedi Murthy et al., 2015
 Hemidactylus yerburii Anderson, 1895
 </t>
@@ -799,9 +817,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre, Hemidactylus, vient du grec ημι, « moitié », et de δακτυλος, « doigt », en référence au fait que la deuxième moitié du doigt est mince et grêle chez ces espèces[36].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre, Hemidactylus, vient du grec ημι, « moitié », et de δακτυλος, « doigt », en référence au fait que la deuxième moitié du doigt est mince et grêle chez ces espèces.
 </t>
         </is>
       </c>
@@ -830,7 +850,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Oken, 1817 : Isis oder Encyclopadische Zeitung. vol. 1 (texte intégral).</t>
         </is>
